--- a/data/B/result1.xlsx
+++ b/data/B/result1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A175228-BB1F-4600-A676-1F38CED690A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>测线距中心点处的距离/m</t>
-  </si>
-  <si>
     <t>海水深度/m</t>
   </si>
   <si>
@@ -37,11 +35,15 @@
     <t>覆盖宽度/m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>测线距中心点处的距离/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,10 +392,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -402,7 +406,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2">
         <v>-800</v>
@@ -434,49 +438,99 @@
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>90.95</v>
+      </c>
+      <c r="C2" s="2">
+        <v>85.71</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80.47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>75.239999999999995</v>
+      </c>
       <c r="F2" s="2">
         <v>70</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="2">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="H2" s="2">
+        <v>59.53</v>
+      </c>
+      <c r="I2" s="2">
+        <v>54.29</v>
+      </c>
+      <c r="J2" s="2">
+        <v>49.05</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>315.82</v>
+      </c>
+      <c r="C3" s="2">
+        <v>297.63</v>
+      </c>
+      <c r="D3" s="2">
+        <v>279.44</v>
+      </c>
+      <c r="E3" s="2">
+        <v>261.26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>243.07</v>
+      </c>
+      <c r="G3" s="2">
+        <v>224.88</v>
+      </c>
+      <c r="H3" s="2">
+        <v>206.7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>188.51</v>
+      </c>
+      <c r="J3" s="2">
+        <v>170.33</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33.43</v>
+      </c>
+      <c r="E4" s="2">
+        <v>27.89</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>14.85</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-12.22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
